--- a/data/msaD.xlsx
+++ b/data/msaD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22956" windowHeight="11351" tabRatio="840" activeTab="12"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="840" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="d2.1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3865" uniqueCount="202">
   <si>
     <t>年龄</t>
   </si>
@@ -646,12 +646,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -693,14 +693,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -714,6 +738,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -722,14 +753,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -752,36 +784,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -802,9 +805,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -812,30 +828,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -850,7 +850,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,19 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,31 +1000,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,109 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,20 +1044,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,6 +1064,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,6 +1098,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1101,43 +1133,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,10 +1149,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0">
@@ -1161,16 +1161,16 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
@@ -1179,115 +1179,115 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1425,6 +1425,11 @@
       <color rgb="00000000"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1609,7 +1614,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1871,12 +1876,11 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G515"/>
   <sheetViews>
@@ -1884,7 +1888,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7" defaultRowHeight="15.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="7.7" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.5" style="2"/>
     <col min="2" max="2" width="6.6" style="2"/>
@@ -13749,7 +13753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -13757,7 +13761,7 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
@@ -13919,7 +13923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -13927,7 +13931,7 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="5.5" style="10"/>
     <col min="2" max="2" width="7.7" style="10"/>
@@ -14175,7 +14179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -14183,7 +14187,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="7.88333333333333" style="7"/>
     <col min="2" max="2" width="9" style="7"/>
@@ -14496,15 +14500,15 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="15.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="7" width="7.9" style="2"/>
   </cols>
@@ -14861,7 +14865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -14981,7 +14985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -15740,7 +15744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -16181,12 +16185,12 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7" defaultRowHeight="12"/>
@@ -16841,7 +16845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -16849,7 +16853,7 @@
       <selection activeCell="A1" sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="11" width="9" style="3"/>
   </cols>
@@ -17244,15 +17248,15 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="5" width="9" style="2"/>
     <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
@@ -18760,7 +18764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -19710,12 +19714,12 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6" defaultRowHeight="12"/>
@@ -21100,7 +21104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -21475,7 +21479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
@@ -21483,7 +21487,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="6" width="10.3" style="2"/>
     <col min="7" max="16384" width="10.3"/>
@@ -22133,7 +22137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D46"/>
   <sheetViews>
@@ -22802,7 +22806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -22810,7 +22814,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="7.5" style="10"/>
     <col min="2" max="2" width="8.2" style="10"/>
@@ -22902,7 +22906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -22910,7 +22914,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="16384" width="8.7" style="3"/>
   </cols>
@@ -23075,7 +23079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -23083,7 +23087,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="8.7" style="2"/>
   </cols>
@@ -23238,7 +23242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -23246,7 +23250,7 @@
       <selection activeCell="A1" sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
